--- a/teste.xlsx
+++ b/teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/pcachim_ua_pt/Documents/Development/Python/eurocodesnb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A929E9-7551-0343-AD9C-F0A0D86EFD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{99A929E9-7551-0343-AD9C-F0A0D86EFD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2774213B-36B3-8443-A15F-DBC25CA73346}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="520" windowWidth="28240" windowHeight="16260" xr2:uid="{CD988B9B-B9B4-E644-B0F2-A35C089A037F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>fx</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>fxy</t>
+  </si>
+  <si>
+    <t>ELU-1</t>
+  </si>
+  <si>
+    <t>ELU-2</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -394,44 +403,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A305BEF2-D4C3-4C42-A5B3-59EA45AD7B8A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>100</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>100</v>
       </c>
     </row>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/pcachim_ua_pt/Documents/Development/Python/eurocodesnb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{99A929E9-7551-0343-AD9C-F0A0D86EFD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2774213B-36B3-8443-A15F-DBC25CA73346}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{99A929E9-7551-0343-AD9C-F0A0D86EFD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C68548D-0D9F-5941-B355-EF936335C835}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="520" windowWidth="28240" windowHeight="16260" xr2:uid="{CD988B9B-B9B4-E644-B0F2-A35C089A037F}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16180" xr2:uid="{CD988B9B-B9B4-E644-B0F2-A35C089A037F}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>fx</t>
   </si>
@@ -52,6 +53,15 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>mx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>mxy</t>
   </si>
 </sst>
 </file>
@@ -406,7 +416,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,4 +466,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5994BFC-14FA-3549-94BD-9DC3C3745891}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>